--- a/app/expense_report.xlsx
+++ b/app/expense_report.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,11 +459,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-06-19</t>
+          <t>2024-06-20</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -472,14 +472,14 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Pens</t>
+          <t>Lunch expenses</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-06-19</t>
+          <t>2024-06-20</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -487,32 +487,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Maintenance</t>
+          <t>Supplies</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Desk repairs</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2024-06-19</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>5000</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Transportation</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Teachers transport</t>
+          <t>2 desks</t>
         </is>
       </c>
     </row>
@@ -527,7 +507,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -550,7 +530,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Maintenance</t>
+          <t>Supplies</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -560,21 +540,11 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Transportation</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Utilities</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1000</v>
+        <v>4000</v>
       </c>
     </row>
   </sheetData>
